--- a/workbench/descriptive-analytics.xlsx
+++ b/workbench/descriptive-analytics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44A0A11-34FD-41AD-A026-A603EC2ED95F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22104972-6F73-45D2-BE10-9AAA910A289B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/workbench/descriptive-analytics.xlsx
+++ b/workbench/descriptive-analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22104972-6F73-45D2-BE10-9AAA910A289B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586C3F1-8019-4AF9-B842-1202DB767B4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,7 +1376,7 @@
       <sheetName val="processed"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1" t="str">
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/workbench/descriptive-analytics.xlsx
+++ b/workbench/descriptive-analytics.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586C3F1-8019-4AF9-B842-1202DB767B4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571E5AE1-5E05-4F23-95C5-16DCF260CD1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="correl-gdp-employment" sheetId="1" r:id="rId1"/>
+    <sheet name="correl-employment-GES" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'correl-gdp-employment'!$A$1:$C$1</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
@@ -50,6 +52,9 @@
   </si>
   <si>
     <t>The correlation between these 2 factors are very strong</t>
+  </si>
+  <si>
+    <t>Correlation between Singapore Overall Employment and Graduate Employment</t>
   </si>
 </sst>
 </file>
@@ -99,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -117,6 +122,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +729,651 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Overall VS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t> Graduate Employment (Singapore)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5888888888888891E-2"/>
+          <c:y val="0.15160433272021254"/>
+          <c:w val="0.89149496937882766"/>
+          <c:h val="0.61051188343946272"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correl-employment-GES'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Employed (thousands)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'correl-employment-GES'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'correl-employment-GES'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3352.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3440.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3550.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3575.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3631.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AFB-40FB-8F55-D26DE7BD6F0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correl-employment-GES'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Employed Graduates</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'correl-employment-GES'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'correl-employment-GES'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AFB-40FB-8F55-D26DE7BD6F0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="316179407"/>
+        <c:axId val="316179823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="316179407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316179823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316179823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="316179407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18938385826771653"/>
+          <c:y val="0.8262370637146752"/>
+          <c:w val="0.61894947506561682"/>
+          <c:h val="0.13795314212332901"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1274,6 +1929,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1295,6 +2466,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7E3B04-3C6D-4A18-87DE-B99317F19D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>245744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E88E23-753D-443B-9BE2-2B92A044F638}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,6 +2574,11 @@
             <v>507123.9</v>
           </cell>
         </row>
+        <row r="8">
+          <cell r="B8">
+            <v>510737.8</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -1376,7 +2593,7 @@
       <sheetName val="processed"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="C1" t="str">
@@ -1413,7 +2630,80 @@
             <v>3575.3</v>
           </cell>
         </row>
+        <row r="8">
+          <cell r="C8">
+            <v>3631.7</v>
+          </cell>
+        </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="raw"/>
+      <sheetName val="course-cluster"/>
+      <sheetName val="response-rate"/>
+      <sheetName val="response-rate-stats"/>
+      <sheetName val="processed"/>
+      <sheetName val="overall-grad-employment"/>
+      <sheetName val="overall-grad-employment rate"/>
+      <sheetName val="grad-employment rate by cluster"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>Employed Graduates</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="D2">
+            <v>10029</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>10167</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>10337</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>10944</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>12551</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>12626</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>12900</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1684,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1786,13 +3076,26 @@
         <v>3575.3</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <f>'[1]GDP Total'!$B8</f>
+        <v>510737.8</v>
+      </c>
+      <c r="C8">
+        <f>[2]processed!$C8</f>
+        <v>3631.7</v>
+      </c>
+    </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <f>CORREL(B2:B7,C2:C7)</f>
-        <v>0.84394176591819514</v>
+        <f>CORREL(B2:B8,C2:C8)</f>
+        <v>0.88844523945303933</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -1803,4 +3106,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134DC496-8FC5-4225-BA33-085BD38A64CD}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.15625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="str">
+        <f>[2]processed!$C1</f>
+        <v>Employed (thousands)</v>
+      </c>
+      <c r="C1" s="8" t="str">
+        <f>'[3]overall-grad-employment'!$D1</f>
+        <v>Employed Graduates</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="8">
+        <f>[2]processed!$C2</f>
+        <v>3352.9</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'[3]overall-grad-employment'!$D2</f>
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="8">
+        <f>[2]processed!$C3</f>
+        <v>3440.2</v>
+      </c>
+      <c r="C3" s="8">
+        <f>'[3]overall-grad-employment'!$D3</f>
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="8">
+        <f>[2]processed!$C4</f>
+        <v>3516</v>
+      </c>
+      <c r="C4" s="8">
+        <f>'[3]overall-grad-employment'!$D4</f>
+        <v>10337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="8">
+        <f>[2]processed!$C5</f>
+        <v>3570</v>
+      </c>
+      <c r="C5" s="8">
+        <f>'[3]overall-grad-employment'!$D5</f>
+        <v>10944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="8">
+        <f>[2]processed!$C6</f>
+        <v>3550.1</v>
+      </c>
+      <c r="C6" s="8">
+        <f>'[3]overall-grad-employment'!$D6</f>
+        <v>12551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8">
+        <f>[2]processed!$C7</f>
+        <v>3575.3</v>
+      </c>
+      <c r="C7" s="8">
+        <f>'[3]overall-grad-employment'!$D7</f>
+        <v>12626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8">
+        <f>[2]processed!$C8</f>
+        <v>3631.7</v>
+      </c>
+      <c r="C8" s="8">
+        <f>'[3]overall-grad-employment'!$D8</f>
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6">
+        <f>CORREL(B2:B8,C2:C8)</f>
+        <v>0.80097164711304802</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/workbench/descriptive-analytics.xlsx
+++ b/workbench/descriptive-analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571E5AE1-5E05-4F23-95C5-16DCF260CD1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC7441-9954-49AB-94F3-4276E8DC6E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,8 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'correl-gdp-employment'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'correl-employment-GES'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'correl-gdp-employment'!$D$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -51,17 +52,26 @@
     <t>Correlation between Singapore GDP and Employment</t>
   </si>
   <si>
-    <t>The correlation between these 2 factors are very strong</t>
+    <t>Correlation between Singapore Overall Employment and Graduate Employment</t>
   </si>
   <si>
-    <t>Correlation between Singapore Overall Employment and Graduate Employment</t>
+    <t>There is a very strong positive correlation between GDP and Overall Employment</t>
+  </si>
+  <si>
+    <t>Overall Employment [Millions]</t>
+  </si>
+  <si>
+    <t>Employed Graduates (thousands)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +81,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,10 +118,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -126,11 +144,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -180,14 +199,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-SG"/>
+              <a:rPr lang="en-SG" sz="1800" u="sng"/>
               <a:t>Singapore GDP Vs</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-SG" baseline="0"/>
-              <a:t> Employment</a:t>
+              <a:rPr lang="en-SG" sz="1800" u="sng" baseline="0"/>
+              <a:t> Overall Employment</a:t>
             </a:r>
-            <a:endParaRPr lang="en-SG"/>
+            <a:endParaRPr lang="en-SG" sz="1800" u="sng"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -195,8 +214,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24838188976377953"/>
-          <c:y val="3.2407407407407406E-2"/>
+          <c:x val="0.10945822397200351"/>
+          <c:y val="3.6062474098632405E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -246,6 +265,7 @@
                   <c:v>GDP At Current Market Prices [In millions (SGD)]</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -300,6 +320,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="b"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -307,7 +328,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -329,10 +350,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'correl-gdp-employment'!$A$2:$A$7</c:f>
+              <c:f>'correl-gdp-employment'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -351,15 +372,19 @@
                 <c:pt idx="5">
                   <c:v>2018</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'correl-gdp-employment'!$B$2:$B$7</c:f>
+              <c:f>'correl-gdp-employment'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>384870.3</c:v>
                 </c:pt>
@@ -378,32 +403,36 @@
                 <c:pt idx="5">
                   <c:v>507123.9</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>510737.8</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC68-4BCF-ADA1-49122EE7AE57}"/>
+              <c16:uniqueId val="{00000001-63FE-429F-878C-E1081131C228}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'correl-gdp-employment'!$C$1</c:f>
+              <c:f>'correl-gdp-employment'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Employed (thousands)</c:v>
+                  <c:v>Overall Employment [Millions]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -414,11 +443,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -454,6 +483,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -483,10 +513,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'correl-gdp-employment'!$A$2:$A$7</c:f>
+              <c:f>'correl-gdp-employment'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -504,33 +534,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'correl-gdp-employment'!$C$2:$C$7</c:f>
+              <c:f>'correl-gdp-employment'!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3352.9</c:v>
+                  <c:v>3.3529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3440.2</c:v>
+                  <c:v>3.4401999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3516</c:v>
+                  <c:v>3.516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3570</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3550.1</c:v>
+                  <c:v>3.5501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3575.3</c:v>
+                  <c:v>3.5753000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6316999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,7 +574,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CC68-4BCF-ADA1-49122EE7AE57}"/>
+              <c16:uniqueId val="{00000004-63FE-429F-878C-E1081131C228}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -552,6 +588,190 @@
         </c:dLbls>
         <c:axId val="913462111"/>
         <c:axId val="913453791"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'correl-gdp-employment'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Employed (thousands)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'correl-gdp-employment'!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'correl-gdp-employment'!$C$2:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3352.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3440.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3516</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3570</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3550.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3575.3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3631.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-63FE-429F-878C-E1081131C228}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="913462111"/>
@@ -619,7 +839,7 @@
       <c:valAx>
         <c:axId val="913453791"/>
         <c:scaling>
-          <c:logBase val="1000"/>
+          <c:logBase val="100"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
@@ -639,7 +859,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="913462111"/>
@@ -763,12 +983,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-SG"/>
-              <a:t>Overall VS</a:t>
+              <a:rPr lang="en-SG" sz="1600" b="1" u="sng"/>
+              <a:t>Singapore Overall VS</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-SG" baseline="0"/>
-              <a:t> Graduate Employment (Singapore)</a:t>
+              <a:rPr lang="en-SG" sz="1600" b="1" u="sng" baseline="0"/>
+              <a:t> Graduate Employment</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -811,7 +1031,7 @@
           <c:yMode val="edge"/>
           <c:x val="5.5888888888888891E-2"/>
           <c:y val="0.15160433272021254"/>
-          <c:w val="0.89149496937882766"/>
+          <c:w val="0.8591082785055455"/>
           <c:h val="0.61051188343946272"/>
         </c:manualLayout>
       </c:layout>
@@ -884,6 +1104,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -979,15 +1200,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'correl-employment-GES'!$C$1</c:f>
+              <c:f>'correl-employment-GES'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Employed Graduates</c:v>
+                  <c:v>Employed Graduates (thousands)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1004,11 +1225,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1044,6 +1265,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1103,30 +1325,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'correl-employment-GES'!$C$2:$C$8</c:f>
+              <c:f>'correl-employment-GES'!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10029</c:v>
+                  <c:v>10.029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10167</c:v>
+                  <c:v>10.167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10337</c:v>
+                  <c:v>10.337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10944</c:v>
+                  <c:v>10.944000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12551</c:v>
+                  <c:v>12.551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12626</c:v>
+                  <c:v>12.625999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12900</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,7 +1356,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7AFB-40FB-8F55-D26DE7BD6F0F}"/>
+              <c16:uniqueId val="{00000001-ADC1-430E-B3B9-8BA57DC08FC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1148,11 +1370,197 @@
         </c:dLbls>
         <c:axId val="316179407"/>
         <c:axId val="316179823"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'correl-employment-GES'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Employed Graduates</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'correl-employment-GES'!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'correl-employment-GES'!$C$2:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>10029</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10167</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10337</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10944</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12551</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12626</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12900</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7AFB-40FB-8F55-D26DE7BD6F0F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="316179407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2019"/>
+          <c:min val="2013"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1214,6 +1622,7 @@
       <c:valAx>
         <c:axId val="316179823"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
@@ -1233,7 +1642,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="316179407"/>
@@ -1249,17 +1658,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18938385826771653"/>
-          <c:y val="0.8262370637146752"/>
-          <c:w val="0.61894947506561682"/>
-          <c:h val="0.13795314212332901"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2449,16 +2848,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>440055</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>481965</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>531495</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2490,16 +2889,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245744</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>441960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>300990</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>609599</xdr:rowOff>
+      <xdr:rowOff>845819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2972,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2983,9 +3382,10 @@
     <col min="1" max="1" width="19.578125" customWidth="1"/>
     <col min="2" max="2" width="21.83984375" customWidth="1"/>
     <col min="3" max="3" width="14.7890625" customWidth="1"/>
+    <col min="4" max="4" width="19.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2997,8 +3397,11 @@
         <f>[2]processed!$C1</f>
         <v>Employed (thousands)</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>2013</v>
       </c>
@@ -3010,8 +3413,12 @@
         <f>[2]processed!$C2</f>
         <v>3352.9</v>
       </c>
+      <c r="D2" s="10">
+        <f>C2/1000</f>
+        <v>3.3529</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2014</v>
       </c>
@@ -3023,8 +3430,12 @@
         <f>[2]processed!$C3</f>
         <v>3440.2</v>
       </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D8" si="0">C3/1000</f>
+        <v>3.4401999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>2015</v>
       </c>
@@ -3036,8 +3447,12 @@
         <f>[2]processed!$C4</f>
         <v>3516</v>
       </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>3.516</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>2016</v>
       </c>
@@ -3049,8 +3464,12 @@
         <f>[2]processed!$C5</f>
         <v>3570</v>
       </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>3.57</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>2017</v>
       </c>
@@ -3062,8 +3481,12 @@
         <f>[2]processed!$C6</f>
         <v>3550.1</v>
       </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>3.5501</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>2018</v>
       </c>
@@ -3075,8 +3498,12 @@
         <f>[2]processed!$C7</f>
         <v>3575.3</v>
       </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>3.5753000000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>2019</v>
       </c>
@@ -3088,32 +3515,38 @@
         <f>[2]processed!$C8</f>
         <v>3631.7</v>
       </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6316999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <f>CORREL(B2:B8,C2:C8)</f>
-        <v>0.88844523945303933</v>
+        <f>CORREL(B2:B8,D2:D8)</f>
+        <v>0.88844523945303988</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{5819F6C0-DE79-4CB3-BFF1-E843E31FC0F5}"/>
+  <autoFilter ref="D1" xr:uid="{FD0C94DF-6853-44CD-94D7-8E9221A60A65}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134DC496-8FC5-4225-BA33-085BD38A64CD}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3121,22 +3554,26 @@
     <col min="1" max="1" width="16.15625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="15.5234375" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="str">
+      <c r="B1" s="3" t="str">
         <f>[2]processed!$C1</f>
         <v>Employed (thousands)</v>
       </c>
-      <c r="C1" s="8" t="str">
+      <c r="C1" s="3" t="str">
         <f>'[3]overall-grad-employment'!$D1</f>
         <v>Employed Graduates</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -3148,8 +3585,12 @@
         <f>'[3]overall-grad-employment'!$D2</f>
         <v>10029</v>
       </c>
+      <c r="D2" s="11">
+        <f>C2/1000</f>
+        <v>10.029</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -3161,8 +3602,12 @@
         <f>'[3]overall-grad-employment'!$D3</f>
         <v>10167</v>
       </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D8" si="0">C3/1000</f>
+        <v>10.167</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -3174,8 +3619,12 @@
         <f>'[3]overall-grad-employment'!$D4</f>
         <v>10337</v>
       </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>10.337</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -3187,8 +3636,12 @@
         <f>'[3]overall-grad-employment'!$D5</f>
         <v>10944</v>
       </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>10.944000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -3200,8 +3653,12 @@
         <f>'[3]overall-grad-employment'!$D6</f>
         <v>12551</v>
       </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>12.551</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -3213,8 +3670,12 @@
         <f>'[3]overall-grad-employment'!$D7</f>
         <v>12626</v>
       </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>12.625999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -3226,20 +3687,25 @@
         <f>'[3]overall-grad-employment'!$D8</f>
         <v>12900</v>
       </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>12.9</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="6">
         <f>CORREL(B2:B8,C2:C8)</f>
         <v>0.80097164711304802</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>2</v>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{E08878BB-A919-45B1-855D-C4B7CDADACE1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/workbench/descriptive-analytics.xlsx
+++ b/workbench/descriptive-analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC7441-9954-49AB-94F3-4276E8DC6E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F58739-1C68-4DF0-8A6C-77693D46C511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3545,8 +3545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134DC496-8FC5-4225-BA33-085BD38A64CD}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/workbench/descriptive-analytics.xlsx
+++ b/workbench/descriptive-analytics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F58739-1C68-4DF0-8A6C-77693D46C511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B6F19C-1961-4CDF-98F3-930850F4A860}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'correl-employment-GES'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'correl-gdp-employment'!$D$1:$D$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'correl-gdp-employment'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'correl-gdp-employment'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'correl-gdp-employment'!$B$2:$B$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'correl-gdp-employment'!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'correl-gdp-employment'!$C$2:$C$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'correl-gdp-employment'!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'correl-gdp-employment'!$D$2:$D$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -250,8 +257,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -270,7 +277,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -348,7 +357,7 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'correl-gdp-employment'!$A$2:$A$8</c:f>
               <c:numCache>
@@ -378,8 +387,8 @@
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'correl-gdp-employment'!$B$2:$B$8</c:f>
               <c:numCache>
@@ -409,7 +418,7 @@
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -432,8 +441,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -511,7 +522,7 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'correl-gdp-employment'!$A$2:$A$8</c:f>
               <c:numCache>
@@ -540,8 +551,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'correl-gdp-employment'!$D$2:$D$8</c:f>
               <c:numCache>
@@ -570,7 +581,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -586,11 +597,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="913462111"/>
         <c:axId val="913453791"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
@@ -613,7 +626,9 @@
                 </c:tx>
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
-                    <a:noFill/>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
@@ -690,7 +705,7 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
-                <c:xVal>
+                <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -725,8 +740,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:xVal>
-                <c:yVal>
+                </c:cat>
+                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -761,7 +776,7 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:yVal>
+                </c:val>
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -769,15 +784,14 @@
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredScatterSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="913462111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="2013"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -795,7 +809,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -834,12 +848,15 @@
         </c:txPr>
         <c:crossAx val="913453791"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="913453791"/>
         <c:scaling>
-          <c:logBase val="100"/>
+          <c:logBase val="1000"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
@@ -864,7 +881,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="913462111"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1035,8 +1052,8 @@
           <c:h val="0.61051188343946272"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1053,8 +1070,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1104,7 +1123,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="b"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1132,7 +1151,7 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'correl-employment-GES'!$A$2:$A$8</c:f>
               <c:numCache>
@@ -1161,8 +1180,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'correl-employment-GES'!$B$2:$B$8</c:f>
               <c:numCache>
@@ -1191,7 +1210,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1214,8 +1233,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1265,7 +1286,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="b"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1293,7 +1314,7 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'correl-employment-GES'!$A$2:$A$8</c:f>
               <c:numCache>
@@ -1322,8 +1343,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'correl-employment-GES'!$D$2:$D$8</c:f>
               <c:numCache>
@@ -1352,7 +1373,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1368,11 +1389,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="316179407"/>
         <c:axId val="316179823"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
@@ -1394,8 +1417,10 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
@@ -1472,7 +1497,7 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
-                <c:xVal>
+                <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -1507,8 +1532,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:xVal>
-                <c:yVal>
+                </c:cat>
+                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -1543,7 +1568,7 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:yVal>
+                </c:val>
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1551,16 +1576,14 @@
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredScatterSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="316179407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2019"/>
-          <c:min val="2013"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1617,8 +1640,11 @@
         </c:txPr>
         <c:crossAx val="316179823"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="316179823"/>
         <c:scaling>
@@ -1647,7 +1673,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="316179407"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3046,9 +3072,9 @@
     <sheetNames>
       <sheetName val="raw"/>
       <sheetName val="course-cluster"/>
+      <sheetName val="processed"/>
       <sheetName val="response-rate"/>
       <sheetName val="response-rate-stats"/>
-      <sheetName val="processed"/>
       <sheetName val="overall-grad-employment"/>
       <sheetName val="overall-grad-employment rate"/>
       <sheetName val="grad-employment rate by cluster"/>
@@ -3374,7 +3400,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/workbench/descriptive-analytics.xlsx
+++ b/workbench/descriptive-analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B6F19C-1961-4CDF-98F3-930850F4A860}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF3912-7469-4995-A5C6-B96056199823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,13 +24,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'correl-employment-GES'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'correl-gdp-employment'!$D$1:$D$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'correl-gdp-employment'!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'correl-gdp-employment'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'correl-gdp-employment'!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'correl-gdp-employment'!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'correl-gdp-employment'!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'correl-gdp-employment'!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'correl-gdp-employment'!$D$2:$D$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -69,6 +62,9 @@
   </si>
   <si>
     <t>Employed Graduates (thousands)</t>
+  </si>
+  <si>
+    <t>There is a very strong positive correlation between Overall Employment and Graduate Employment</t>
   </si>
 </sst>
 </file>
@@ -2961,8 +2957,8 @@
       <sheetName val="GDP Total"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="B1" t="str">
@@ -3080,11 +3076,11 @@
       <sheetName val="grad-employment rate by cluster"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="D1" t="str">
@@ -3127,8 +3123,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3572,7 +3568,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3718,7 +3714,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -3727,7 +3723,7 @@
         <v>0.80097164711304802</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
